--- a/Gateway/Content/mauKHmoi.xlsx
+++ b/Gateway/Content/mauKHmoi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\netcore\Gateway\Gateway\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACB1FC7-6FDC-4C51-861E-265CCB544F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2099C506-0416-4CA1-8A16-03C30642195A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GĐ1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Địa chỉ</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Tỉnh/ Tp</t>
+  </si>
+  <si>
+    <t>Mã khách hàng</t>
+  </si>
+  <si>
+    <t>Mã ĐDNH</t>
   </si>
 </sst>
 </file>
@@ -161,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -177,16 +183,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -469,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E178D88C-6020-4926-983A-10F647792B2B}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,33 +494,35 @@
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
     <col min="7" max="7" width="25.28515625" customWidth="1"/>
     <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
       <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -536,8 +547,14 @@
       <c r="H3" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -546,8 +563,10 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -556,8 +575,10 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -566,8 +587,10 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -576,8 +599,10 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -586,8 +611,10 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -596,8 +623,10 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -606,8 +635,10 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -616,8 +647,10 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -626,8 +659,10 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -636,8 +671,10 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -646,8 +683,10 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -656,8 +695,10 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -666,8 +707,10 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -676,8 +719,10 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -686,8 +731,10 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -696,8 +743,10 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -706,8 +755,10 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -716,8 +767,10 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -726,8 +779,10 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -736,8 +791,10 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -746,8 +803,10 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -756,8 +815,10 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -766,8 +827,10 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -776,8 +839,10 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -786,8 +851,10 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -796,8 +863,10 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -806,8 +875,10 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -816,8 +887,10 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -826,8 +899,10 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -836,8 +911,10 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -846,8 +923,10 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -856,8 +935,10 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -866,8 +947,10 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -876,8 +959,10 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -886,8 +971,10 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -896,8 +983,10 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -906,8 +995,10 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -916,8 +1007,10 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -926,8 +1019,10 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -936,8 +1031,10 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -946,8 +1043,10 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -956,13 +1055,15 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C2:H2"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
